--- a/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_Unif_beta_versionA_deltax_22-Dec-2023.xlsx
+++ b/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_Unif_beta_versionA_deltax_22-Dec-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA015CDD-2B42-494A-89E9-1CAFB9E02FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A1DB06-555C-4754-8CDE-8E0F9E2A6E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{CAF5B516-C8D0-492C-95B9-DF8F011A337C}"/>
   </bookViews>
